--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -9,14 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7875" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7875" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sign in" sheetId="1" r:id="rId1"/>
     <sheet name=" Registration" sheetId="3" r:id="rId2"/>
     <sheet name="Forgot password" sheetId="4" r:id="rId3"/>
     <sheet name="Sửa thông tin tài khoản" sheetId="5" r:id="rId4"/>
-    <sheet name="Image" sheetId="2" r:id="rId5"/>
+    <sheet name="Tìm kiếm" sheetId="6" r:id="rId5"/>
+    <sheet name="Gio Hàng" sheetId="7" r:id="rId6"/>
+    <sheet name="Liên kết FB,Google" sheetId="8" r:id="rId7"/>
+    <sheet name="Image" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="218">
   <si>
     <t>FUNCTION</t>
   </si>
@@ -537,12 +540,6 @@
     <t>Verify "Quên mật khẩu" screen</t>
   </si>
   <si>
-    <t>1. Enter link: http://laptrinhhn.com/
-2. Click &lt;Đăng nhập&gt; button
-3. Click "Quên mật khẩu?" hyperlink 
-4. Verify "Quên mật khẩu" screen.</t>
-  </si>
-  <si>
     <t>Click here to view "Quên mật khẩu" screen.</t>
   </si>
   <si>
@@ -556,12 +553,6 @@
   </si>
   <si>
     <t>Input characters special into [Email để nhận mật khẩu mới] field.</t>
-  </si>
-  <si>
-    <t>1. Enter link: http://laptrinhhn.com/
-2. Click "Quên mật khẩu?" hyperlink
-3. Input characters special into [Email để nhận mật khẩu mới] field.
-4. Click &lt;Lấy mật khẩu&gt; button.</t>
   </si>
   <si>
     <t>Input html tag, javascript, sql ... into [Email để nhận mật khẩu mới] field.</t>
@@ -576,12 +567,6 @@
     <t>Input email which isn't existed in system</t>
   </si>
   <si>
-    <t>1. Enter link: http://laptrinhhn.com/
-2. Click "Quên mật khẩu?" hyperlink
-3. Input email which isn't exist into [Email để nhận mật khẩu mới] field.
-4. Click &lt;Lấy mật khẩu&gt; button.</t>
-  </si>
-  <si>
     <t>System displays an error message: "Email chưa được đăng ký."</t>
   </si>
   <si>
@@ -598,28 +583,13 @@
 </t>
   </si>
   <si>
-    <t>Giao diện bị lặp</t>
-  </si>
-  <si>
     <t>Leave blank [Nhập tên tài khoản của bạn] field</t>
   </si>
   <si>
-    <t>1. Enter link: http://laptrinhhn.com/
-2. Click "Quên mật khẩu?" hyperlink
-3. Don't input data into [Nhập tên tài khoản của bạn] field.
-4. Click &lt;Lấy mật khẩu&gt; button.</t>
-  </si>
-  <si>
     <t>System displays an error message: "Nhập email tương ứng."</t>
   </si>
   <si>
     <t>Input spaces into [Nhập email tương ứng] field.</t>
-  </si>
-  <si>
-    <t>1. Enter link: http://laptrinhhn.com/
-2. Click "Quên mật khẩu?" hyperlink
-3. Input spaces into [Nhập tên tài khoản của bạn] field.
-4. Click &lt;Lấy mật khẩu&gt; button.</t>
   </si>
   <si>
     <t>System displays an error message:" Nhập tên tài khoản của bạn."</t>
@@ -632,13 +602,6 @@
   </si>
   <si>
     <t>Sửa thông tin tài khoản</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Enter link: http://laptrinhhn.com/
-2. Click &lt;Đăng nhập&gt; button
-3. Click &lt;Quản lý tài khoản&gt;
-4.Click &lt;Sửa thông tin cá nhân&gt;
-</t>
   </si>
   <si>
     <t>Chinh sua thong tin</t>
@@ -705,11 +668,6 @@
   </si>
   <si>
     <t>TC4</t>
-  </si>
-  <si>
-    <t>1. Enter link: "shopetconne.tk" 
-2. Click "Đăng nhập" hyperlink
-3. Verify "Đăng nhập" screen.</t>
   </si>
   <si>
     <t>1. Enter link: shopetconne.tk
@@ -730,6 +688,192 @@
   <si>
     <t>System displays an error message: "Hãy nhập email muốn đăng ký."</t>
   </si>
+  <si>
+    <t>1. Enter link: "http://shopetcorner.tk/" 
+2. Click "Đăng nhập" hyperlink
+3. Verify "Đăng nhập" screen.</t>
+  </si>
+  <si>
+    <t>1. Enter link:"http://shopetcorner.tk/" 
+2. Click &lt;Đăng nhập&gt; button
+3. Click "Quên mật khẩu?" hyperlink 
+4. Verify "Quên mật khẩu" screen.</t>
+  </si>
+  <si>
+    <t>1. Enter link: "http://shopetcorner.tk/" 
+2. Click "Quên mật khẩu?" hyperlink
+3. Don't input data into [Nhập tên tài khoản của bạn] field.
+4. Click &lt;Lấy mật khẩu&gt; button.</t>
+  </si>
+  <si>
+    <t>1. Enter link: "http://shopetcorner.tk/" 
+2. Click "Quên mật khẩu?" hyperlink
+3. Input spaces into [Nhập tên tài khoản của bạn] field.
+4. Click &lt;Lấy mật khẩu&gt; button.</t>
+  </si>
+  <si>
+    <t>1. Enter link:"http://shopetcorner.tk/" 
+2. Click "Quên mật khẩu?" hyperlink
+3. Input characters special into [Email để nhận mật khẩu mới] field.
+4. Click &lt;Lấy mật khẩu&gt; button.</t>
+  </si>
+  <si>
+    <t>1. Enter link:"http://shopetcorner.tk/" 
+2. Click "Quên mật khẩu?" hyperlink
+3. Input email which isn't exist into [Email để nhận mật khẩu mới] field.
+4. Click &lt;Lấy mật khẩu&gt; button.</t>
+  </si>
+  <si>
+    <t>Tìm kiếm sản phẩm</t>
+  </si>
+  <si>
+    <t>Tìm kiếm' sản phẩm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter link:"http://shopetcorner.tk/" 
+2. Click &lt;Đăng nhập&gt; button
+3. Click &lt;Quản lý tài khoản&gt;
+4.Click &lt;Sửa thông tin cá nhân&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter link:"http://shopetcorner.tk/" 
+2.Nhập tên sản phẩm cần tìm kiếm 
+VD: Hạt
+</t>
+  </si>
+  <si>
+    <t>Tìm kiếm sản phẩm thành công</t>
+  </si>
+  <si>
+    <t>Để trống ô tìm kiếm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter link:"http://shopetcorner.tk/" 
+2.Để trống ô tìm kiếm sản phẩm
+3.Nhấn &lt;Tìm kiếm&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System displays a message: "Điền vào trường này."
+</t>
+  </si>
+  <si>
+    <t>Tìm kiếm theo ô &lt;Tìm kiếm sản phẩm&gt;</t>
+  </si>
+  <si>
+    <t>Tìm kiếm theo danh mục</t>
+  </si>
+  <si>
+    <t>Tìm kiếm theo danh mục thành công</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter link:"http://shopetcorner.tk/" 
+2.Để trống ô tìm kiếm sản phẩm
+3.Nhấn Danh mục sản phẩm
+4.Chọn sản phẩm theo danh mục
+</t>
+  </si>
+  <si>
+    <t>1.Sản phẩm xếp đúng theo danh mục
+2.Sản phẩm xếp theo đúng thứ tự abc</t>
+  </si>
+  <si>
+    <t>Gior hàng</t>
+  </si>
+  <si>
+    <t>Tc1</t>
+  </si>
+  <si>
+    <t>Thêm vào giỏ hàng  thành công</t>
+  </si>
+  <si>
+    <t>Thêm vào giỏ hàng</t>
+  </si>
+  <si>
+    <t>Tc2</t>
+  </si>
+  <si>
+    <t>1. Enter link:"http://shopetcorner.tk/" 
+2. Chọn 1 sản phẩm
+3.Nhấn &lt;Thêm vao giỏ hàng&gt;</t>
+  </si>
+  <si>
+    <t>1. Enter link:"http://shopetcorner.tk/" 
+2. Chọn 2 sản phẩm
+3.Nhấn &lt;Thêm vao giỏ hàng&gt;</t>
+  </si>
+  <si>
+    <t>1. Enter link:"http://shopetcorner.tk/" 
+2. Chọn 3,4,... sản phẩm
+3.Nhấn &lt;Thêm vao giỏ hàng&gt;</t>
+  </si>
+  <si>
+    <t>Tc3</t>
+  </si>
+  <si>
+    <t>Tc4</t>
+  </si>
+  <si>
+    <t>Kiểm tra giỏ hàng</t>
+  </si>
+  <si>
+    <t>Kiểm tra giỏ hàng thành công</t>
+  </si>
+  <si>
+    <t>Kiểm tra giỏ hàng không thành công</t>
+  </si>
+  <si>
+    <t>1. Enter link:"http://shopetcorner.tk/" 
+2.Đăng nhập tài khoản hoặc đăng ký tài khoản để mua hàng.
+3.Nhấn vào biểu tượng giỏ hàng</t>
+  </si>
+  <si>
+    <t>1. Enter link:"http://shopetcorner.tk/" 
+2.Đăng nhập tài khoản hoặc đăng ký tài khoản để mua hàng
+3. Nhấn vào biểu tượng giỏ hàng.
+4.Nếu đúng sản phẩm,nhấn &lt;Thanh toán&gt;</t>
+  </si>
+  <si>
+    <t>Liên hệ Facebook,Google+</t>
+  </si>
+  <si>
+    <t>Liên kết Facebook,Google +</t>
+  </si>
+  <si>
+    <t>Liên kết FB,Google</t>
+  </si>
+  <si>
+    <t>Chia sẻ liên kết qua Facebook thành công</t>
+  </si>
+  <si>
+    <t>Chia sẻ liên kết qua Google+  thành công</t>
+  </si>
+  <si>
+    <t>Chia sẻ liên kết qua Facebook không thành công</t>
+  </si>
+  <si>
+    <t>1. Enter link: "http://shopetcorner.tk/" 
+2. Đăng nhập hoặc đăng kí tài khoản thành công
+3.Nhấn biểu tượng FB để chia sẻ.</t>
+  </si>
+  <si>
+    <t>1. Enter link: "http://shopetcorner.tk/" 
+2. Đăng nhập hoặc đăng kí tài khoản thành công
+3.Nhấn biểu tượng Google+ để chia sẻ.</t>
+  </si>
+  <si>
+    <t>1. Enter link: "http://shopetcorner.tk/" 
+2. Chưa đăng ký tài khoản.
+3.Nhấn biểu tượng Facebook để chia sẻ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System displays a message: "Đăng nhập hoặc đăng kí tài khoản"
+</t>
+  </si>
+  <si>
+    <t>Chia sẻ liên kết qua Google+ không  thành công</t>
+  </si>
 </sst>
 </file>
 
@@ -739,7 +883,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]d/mmm/yy;@"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="13"/>
       <color theme="1"/>
@@ -917,8 +1061,21 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1057,8 +1214,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="41"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="82">
+  <borders count="83">
     <border>
       <left/>
       <right/>
@@ -2015,6 +2178,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="3" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="3" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2026,9 +2200,9 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="15" fillId="16" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="13" borderId="50" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2239,189 +2413,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="15" fillId="16" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="16" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="16" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="16" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="16" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="14" borderId="48" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="14" borderId="49" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="13" borderId="50" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="13" borderId="49" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="13" borderId="50" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="13" borderId="51" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="13" borderId="49" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="15" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="15" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="15" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="15" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="16" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="16" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="13" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="13" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="12" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="14" borderId="43" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="14" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="13" borderId="45" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="13" borderId="46" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="13" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="13" borderId="47" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="13" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="13" borderId="52" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="7" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="7" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="7" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="13" fillId="21" borderId="76" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2466,9 +2457,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2484,21 +2472,6 @@
     <xf numFmtId="164" fontId="7" fillId="5" borderId="75" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="75" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="75" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="75" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="7" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="6" borderId="75" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2507,9 +2480,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="75" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="9" borderId="75" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2547,6 +2517,249 @@
     <xf numFmtId="0" fontId="24" fillId="23" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="22" borderId="75" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="13" borderId="51" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="13" borderId="49" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="15" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="15" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="15" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="15" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="16" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="16" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="13" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="13" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="12" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="14" borderId="43" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="14" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="13" borderId="45" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="13" borderId="46" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="13" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="13" borderId="47" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="14" borderId="48" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="14" borderId="49" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="13" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="13" borderId="52" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="16" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="16" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="16" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="16" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="16" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="16" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="13" borderId="50" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="13" borderId="49" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="75" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="7" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="75" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="75" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="7" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="7" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="7" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="75" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="75" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="75" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="75" xfId="4" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="27" fillId="24" borderId="75" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="11" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="11" borderId="82" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="11" borderId="24" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2657,8 +2870,8 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2676,7 +2889,197 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6267451" y="323851"/>
-          <a:ext cx="5553074" cy="3200400"/>
+          <a:ext cx="5553074" cy="3543299"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="447675"/>
+          <a:ext cx="5905500" cy="3381375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7038975" y="4629150"/>
+          <a:ext cx="4857750" cy="3514725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7038976" y="8801101"/>
+          <a:ext cx="5010150" cy="4400549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7038976" y="14144624"/>
+          <a:ext cx="5324474" cy="4133851"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="14239875"/>
+          <a:ext cx="6343650" cy="3990976"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2953,7 +3356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -2969,10 +3372,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" thickBot="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="92"/>
+      <c r="B1" s="119"/>
       <c r="C1" s="28"/>
       <c r="D1" s="29"/>
       <c r="E1" s="30"/>
@@ -2981,76 +3384,76 @@
       <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="95" t="s">
+      <c r="B2" s="121"/>
+      <c r="C2" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="98"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="125"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="81" t="s">
+      <c r="B3" s="127"/>
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="100"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="129"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="79" t="s">
+      <c r="B4" s="127"/>
+      <c r="C4" s="136" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="80"/>
+      <c r="D4" s="137"/>
       <c r="E4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="81"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="83"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="110"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="87"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="114"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="89"/>
+      <c r="B6" s="116"/>
       <c r="C6" s="34"/>
       <c r="D6" s="35"/>
       <c r="E6" s="35"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="91"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="118"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="1"/>
-      <c r="B7" s="72"/>
+      <c r="A7" s="130"/>
+      <c r="B7" s="131"/>
       <c r="C7" s="36" t="s">
         <v>8</v>
       </c>
@@ -3067,10 +3470,10 @@
       <c r="H7" s="40"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="74"/>
+      <c r="B8" s="133"/>
       <c r="C8" s="41">
         <v>18</v>
       </c>
@@ -3087,13 +3490,13 @@
       <c r="H8" s="40"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="76"/>
+      <c r="B9" s="135"/>
       <c r="C9" s="41">
         <f xml:space="preserve"> COUNTIF(G12:G31,"Passed")</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D9" s="41">
         <f xml:space="preserve"> COUNTIF(G12:G31,"Failed")</f>
@@ -3101,7 +3504,7 @@
       </c>
       <c r="E9" s="41">
         <f>F9-C9-D9</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F9" s="41">
         <f>COUNTA(E12:E71)</f>
@@ -3157,7 +3560,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D12" s="54" t="s">
         <v>22</v>
@@ -3168,7 +3571,9 @@
       <c r="F12" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="52"/>
+      <c r="G12" s="52" t="s">
+        <v>8</v>
+      </c>
       <c r="H12" s="53"/>
     </row>
     <row r="13" spans="1:8">
@@ -3215,7 +3620,9 @@
       <c r="F15" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="59"/>
+      <c r="G15" s="59" t="s">
+        <v>8</v>
+      </c>
       <c r="H15" s="63"/>
     </row>
     <row r="16" spans="1:8" ht="51">
@@ -3238,7 +3645,9 @@
       <c r="F16" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="64"/>
+      <c r="G16" s="59" t="s">
+        <v>8</v>
+      </c>
       <c r="H16" s="67"/>
     </row>
     <row r="17" spans="1:8" ht="51">
@@ -3261,7 +3670,9 @@
       <c r="F17" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="64"/>
+      <c r="G17" s="59" t="s">
+        <v>8</v>
+      </c>
       <c r="H17" s="67"/>
     </row>
     <row r="18" spans="1:8" ht="51">
@@ -3284,7 +3695,9 @@
       <c r="F18" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="64"/>
+      <c r="G18" s="59" t="s">
+        <v>8</v>
+      </c>
       <c r="H18" s="67"/>
     </row>
     <row r="19" spans="1:8" ht="51">
@@ -3307,7 +3720,9 @@
       <c r="F19" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="64"/>
+      <c r="G19" s="59" t="s">
+        <v>8</v>
+      </c>
       <c r="H19" s="67"/>
     </row>
     <row r="20" spans="1:8" ht="51">
@@ -3330,7 +3745,9 @@
       <c r="F20" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="64"/>
+      <c r="G20" s="59" t="s">
+        <v>8</v>
+      </c>
       <c r="H20" s="67"/>
     </row>
     <row r="21" spans="1:8" ht="51">
@@ -3353,7 +3770,9 @@
       <c r="F21" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="64"/>
+      <c r="G21" s="59" t="s">
+        <v>8</v>
+      </c>
       <c r="H21" s="67"/>
     </row>
     <row r="22" spans="1:8" ht="38.25">
@@ -3376,7 +3795,9 @@
       <c r="F22" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="64"/>
+      <c r="G22" s="59" t="s">
+        <v>8</v>
+      </c>
       <c r="H22" s="67"/>
     </row>
     <row r="23" spans="1:8" ht="63.75">
@@ -3399,7 +3820,9 @@
       <c r="F23" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="64"/>
+      <c r="G23" s="59" t="s">
+        <v>8</v>
+      </c>
       <c r="H23" s="70"/>
     </row>
     <row r="24" spans="1:8" ht="76.5">
@@ -3422,7 +3845,9 @@
       <c r="F24" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="52"/>
+      <c r="G24" s="59" t="s">
+        <v>8</v>
+      </c>
       <c r="H24" s="53"/>
     </row>
     <row r="25" spans="1:8" ht="89.25">
@@ -3445,7 +3870,9 @@
       <c r="F25" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="52"/>
+      <c r="G25" s="59" t="s">
+        <v>8</v>
+      </c>
       <c r="H25" s="53"/>
     </row>
     <row r="26" spans="1:8" ht="63.75">
@@ -3468,7 +3895,9 @@
       <c r="F26" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="52"/>
+      <c r="G26" s="59" t="s">
+        <v>8</v>
+      </c>
       <c r="H26" s="53"/>
     </row>
     <row r="27" spans="1:8" ht="76.5">
@@ -3491,7 +3920,9 @@
       <c r="F27" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="G27" s="52"/>
+      <c r="G27" s="59" t="s">
+        <v>8</v>
+      </c>
       <c r="H27" s="53"/>
     </row>
     <row r="28" spans="1:8" ht="76.5">
@@ -3514,7 +3945,9 @@
       <c r="F28" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="52"/>
+      <c r="G28" s="59" t="s">
+        <v>8</v>
+      </c>
       <c r="H28" s="53"/>
     </row>
     <row r="29" spans="1:8" ht="25.5">
@@ -3537,7 +3970,9 @@
       <c r="F29" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="52"/>
+      <c r="G29" s="59" t="s">
+        <v>8</v>
+      </c>
       <c r="H29" s="53"/>
     </row>
     <row r="30" spans="1:8" ht="51">
@@ -3560,7 +3995,9 @@
       <c r="F30" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="G30" s="64"/>
+      <c r="G30" s="59" t="s">
+        <v>8</v>
+      </c>
       <c r="H30" s="67"/>
     </row>
     <row r="31" spans="1:8" ht="38.25">
@@ -3583,11 +4020,18 @@
       <c r="F31" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="G31" s="52"/>
+      <c r="G31" s="59" t="s">
+        <v>8</v>
+      </c>
       <c r="H31" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A6:B6"/>
@@ -3599,11 +4043,6 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F12:G12 F15:G31">
@@ -3627,8 +4066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15:G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3640,730 +4079,779 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="154"/>
-      <c r="C2" s="155" t="s">
+      <c r="B2" s="143"/>
+      <c r="C2" s="138" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="154" t="s">
+      <c r="A3" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="154"/>
-      <c r="C3" s="155" t="s">
+      <c r="B3" s="143"/>
+      <c r="C3" s="138" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="154" t="s">
+      <c r="A4" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="154"/>
-      <c r="C4" s="156" t="s">
+      <c r="B4" s="143"/>
+      <c r="C4" s="141" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="156"/>
-      <c r="E4" s="157" t="s">
+      <c r="D4" s="141"/>
+      <c r="E4" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="155"/>
-      <c r="G4" s="155"/>
-      <c r="H4" s="155"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="158" t="s">
+      <c r="A5" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="158"/>
-      <c r="C5" s="158"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158"/>
-      <c r="G5" s="158"/>
-      <c r="H5" s="158"/>
+      <c r="B5" s="139"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="139"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="159" t="s">
+      <c r="A6" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="159"/>
-      <c r="C6" s="160"/>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="156"/>
-      <c r="G6" s="156"/>
-      <c r="H6" s="156"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="159"/>
-      <c r="B7" s="159"/>
-      <c r="C7" s="161" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="161" t="s">
+      <c r="A7" s="140"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="94" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="161" t="s">
+      <c r="E7" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="161" t="s">
+      <c r="F7" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="161" t="s">
+      <c r="G7" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="161" t="s">
+      <c r="H7" s="94" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="159" t="s">
+      <c r="A8" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="159"/>
-      <c r="C8" s="162">
+      <c r="B8" s="140"/>
+      <c r="C8" s="95">
         <f>COUNTIF(F13:F34,"Passed")</f>
         <v>21</v>
       </c>
-      <c r="D8" s="162">
+      <c r="D8" s="95">
         <f>COUNTIF(F10:F34,"Failed")</f>
         <v>1</v>
       </c>
-      <c r="E8" s="162">
+      <c r="E8" s="95">
         <f>COUNTIF(F10:F34,"Pending")</f>
         <v>0</v>
       </c>
-      <c r="F8" s="162">
+      <c r="F8" s="95">
         <f>COUNTIF(F10:F34,"Accepted")</f>
         <v>0</v>
       </c>
-      <c r="G8" s="162">
+      <c r="G8" s="95">
         <f>H8-C8-D8-E8-F8</f>
         <v>0</v>
       </c>
-      <c r="H8" s="162">
+      <c r="H8" s="95">
         <f>COUNTA(E11:E75)</f>
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="163" t="s">
+      <c r="A9" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="163"/>
-      <c r="C9" s="162">
-        <f xml:space="preserve"> COUNTIF(G13:G34,"Passed")</f>
+      <c r="B9" s="144"/>
+      <c r="C9" s="95">
+        <f xml:space="preserve"> COUNTIF(G12:G34,"Passed")</f>
+        <v>22</v>
+      </c>
+      <c r="D9" s="95">
+        <f xml:space="preserve"> COUNTIF(G12:G34,"Failed")</f>
         <v>0</v>
       </c>
-      <c r="D9" s="162">
-        <f xml:space="preserve"> COUNTIF(G13:G34,"Failed")</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="162">
+      <c r="E9" s="95">
         <f>COUNTIF(F11:F34,"Pending")</f>
         <v>0</v>
       </c>
-      <c r="F9" s="162">
+      <c r="F9" s="95">
         <f xml:space="preserve"> COUNTIF(F11:F34,"Accepted")</f>
         <v>0</v>
       </c>
-      <c r="G9" s="162">
+      <c r="G9" s="95">
         <f>H9-C9-D9-E9-F9</f>
-        <v>22</v>
-      </c>
-      <c r="H9" s="162">
+        <v>0</v>
+      </c>
+      <c r="H9" s="95">
         <f>COUNTA(E11:E34)</f>
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="28.5">
-      <c r="A10" s="164" t="s">
+      <c r="A10" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="165" t="s">
+      <c r="B10" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="165" t="s">
+      <c r="C10" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="165" t="s">
+      <c r="D10" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="165" t="s">
+      <c r="E10" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="165" t="s">
+      <c r="F10" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="165" t="s">
+      <c r="G10" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="166" t="s">
+      <c r="H10" s="98" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="167" t="s">
+      <c r="A11" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="168"/>
-      <c r="C11" s="168"/>
-      <c r="D11" s="168"/>
-      <c r="E11" s="168"/>
-      <c r="F11" s="169"/>
-      <c r="G11" s="168"/>
-      <c r="H11" s="168"/>
-    </row>
-    <row r="12" spans="1:9" s="148" customFormat="1" ht="38.25">
-      <c r="A12" s="170" t="str">
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+    </row>
+    <row r="12" spans="1:9" s="87" customFormat="1" ht="38.25">
+      <c r="A12" s="102" t="str">
         <f>IF(C12&lt;&gt;"","Reg_"&amp; (ROW()-10)-COUNTBLANK(C$11:C12),"")</f>
         <v>Reg_1</v>
       </c>
-      <c r="B12" s="171" t="s">
+      <c r="B12" s="103" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="171" t="s">
+      <c r="C12" s="103" t="s">
         <v>117</v>
       </c>
-      <c r="D12" s="172" t="s">
+      <c r="D12" s="104" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="170" t="s">
+      <c r="E12" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="176" t="s">
+      <c r="F12" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="170"/>
-      <c r="H12" s="171"/>
-      <c r="I12" s="147"/>
-    </row>
-    <row r="13" spans="1:9" s="148" customFormat="1" ht="38.25">
-      <c r="A13" s="170" t="str">
+      <c r="G12" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="103"/>
+      <c r="I12" s="86"/>
+    </row>
+    <row r="13" spans="1:9" s="87" customFormat="1" ht="38.25">
+      <c r="A13" s="102" t="str">
         <f>IF(C13&lt;&gt;"","Reg_"&amp; (ROW()-10)-COUNTBLANK(C$11:C13),"")</f>
         <v>Reg_2</v>
       </c>
-      <c r="B13" s="171" t="s">
+      <c r="B13" s="103" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="171" t="s">
-        <v>178</v>
-      </c>
-      <c r="D13" s="172" t="s">
+      <c r="C13" s="103" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="170" t="s">
+      <c r="E13" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="170" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="170"/>
-      <c r="H13" s="171"/>
-    </row>
-    <row r="14" spans="1:9" s="146" customFormat="1">
-      <c r="A14" s="144" t="s">
+      <c r="F13" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="103"/>
+    </row>
+    <row r="14" spans="1:9" s="85" customFormat="1">
+      <c r="A14" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="145"/>
-      <c r="C14" s="145"/>
-      <c r="D14" s="145"/>
-      <c r="E14" s="145"/>
-      <c r="F14" s="145"/>
-      <c r="G14" s="145"/>
-      <c r="H14" s="145"/>
-      <c r="I14" s="175"/>
-    </row>
-    <row r="15" spans="1:9" s="148" customFormat="1" ht="153">
-      <c r="A15" s="170" t="str">
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="107"/>
+    </row>
+    <row r="15" spans="1:9" s="87" customFormat="1" ht="153">
+      <c r="A15" s="102" t="str">
         <f>IF(C15&lt;&gt;"","Reg_"&amp; (ROW()-10)-COUNTBLANK(C$11:C15),"")</f>
         <v>Reg_3</v>
       </c>
-      <c r="B15" s="173" t="s">
+      <c r="B15" s="105" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="173" t="s">
-        <v>179</v>
-      </c>
-      <c r="D15" s="173" t="s">
+      <c r="C15" s="105" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" s="105" t="s">
         <v>118</v>
       </c>
-      <c r="E15" s="174" t="s">
+      <c r="E15" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="170" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="170"/>
-      <c r="H15" s="173"/>
-    </row>
-    <row r="16" spans="1:9" s="148" customFormat="1" ht="63.75">
-      <c r="A16" s="170" t="str">
+      <c r="F15" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="105"/>
+    </row>
+    <row r="16" spans="1:9" s="87" customFormat="1" ht="63.75">
+      <c r="A16" s="102" t="str">
         <f>IF(C16&lt;&gt;"","Reg_"&amp; (ROW()-10)-COUNTBLANK(C$11:C16),"")</f>
         <v>Reg_4</v>
       </c>
-      <c r="B16" s="171" t="s">
+      <c r="B16" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="171" t="s">
+      <c r="C16" s="103" t="s">
         <v>120</v>
       </c>
-      <c r="D16" s="171" t="s">
+      <c r="D16" s="103" t="s">
         <v>121</v>
       </c>
-      <c r="E16" s="170" t="s">
+      <c r="E16" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="170" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="170"/>
-      <c r="H16" s="173"/>
-    </row>
-    <row r="17" spans="1:8" s="148" customFormat="1" ht="63.75">
-      <c r="A17" s="170" t="str">
+      <c r="F16" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="105"/>
+    </row>
+    <row r="17" spans="1:8" s="87" customFormat="1" ht="63.75">
+      <c r="A17" s="102" t="str">
         <f>IF(C17&lt;&gt;"","Reg_"&amp; (ROW()-10)-COUNTBLANK(C$11:C17),"")</f>
         <v>Reg_5</v>
       </c>
-      <c r="B17" s="171" t="s">
+      <c r="B17" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="171" t="s">
+      <c r="C17" s="103" t="s">
         <v>124</v>
       </c>
-      <c r="D17" s="171" t="s">
+      <c r="D17" s="103" t="s">
         <v>125</v>
       </c>
-      <c r="E17" s="170" t="s">
+      <c r="E17" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="170" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="170"/>
-      <c r="H17" s="173"/>
-    </row>
-    <row r="18" spans="1:8" s="148" customFormat="1" ht="89.25">
-      <c r="A18" s="170" t="str">
+      <c r="F17" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="105"/>
+    </row>
+    <row r="18" spans="1:8" s="87" customFormat="1" ht="89.25">
+      <c r="A18" s="102" t="str">
         <f>IF(C18&lt;&gt;"","Reg_"&amp; (ROW()-10)-COUNTBLANK(C$11:C18),"")</f>
         <v>Reg_6</v>
       </c>
-      <c r="B18" s="171" t="s">
+      <c r="B18" s="103" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="171" t="s">
+      <c r="C18" s="103" t="s">
         <v>126</v>
       </c>
-      <c r="D18" s="171" t="s">
+      <c r="D18" s="103" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="170" t="s">
+      <c r="E18" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="170" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="170"/>
-      <c r="H18" s="173"/>
-    </row>
-    <row r="19" spans="1:8" s="148" customFormat="1" ht="63.75">
-      <c r="A19" s="170" t="str">
+      <c r="F18" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="105"/>
+    </row>
+    <row r="19" spans="1:8" s="87" customFormat="1" ht="63.75">
+      <c r="A19" s="102" t="str">
         <f>IF(C19&lt;&gt;"","Reg_"&amp; (ROW()-10)-COUNTBLANK(C$11:C19),"")</f>
         <v>Reg_7</v>
       </c>
-      <c r="B19" s="171" t="s">
+      <c r="B19" s="103" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="171" t="s">
+      <c r="C19" s="103" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="171" t="s">
+      <c r="D19" s="103" t="s">
         <v>127</v>
       </c>
-      <c r="E19" s="170" t="s">
+      <c r="E19" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="170" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="170"/>
-      <c r="H19" s="173"/>
-    </row>
-    <row r="20" spans="1:8" s="148" customFormat="1" ht="63.75">
-      <c r="A20" s="170" t="str">
+      <c r="F19" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="105"/>
+    </row>
+    <row r="20" spans="1:8" s="87" customFormat="1" ht="63.75">
+      <c r="A20" s="102" t="str">
         <f>IF(C20&lt;&gt;"","Reg_"&amp; (ROW()-10)-COUNTBLANK(C$11:C20),"")</f>
         <v>Reg_8</v>
       </c>
-      <c r="B20" s="171" t="s">
+      <c r="B20" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="171" t="s">
+      <c r="C20" s="103" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="171" t="s">
+      <c r="D20" s="103" t="s">
         <v>127</v>
       </c>
-      <c r="E20" s="170" t="s">
+      <c r="E20" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="170" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="170"/>
-      <c r="H20" s="173"/>
-    </row>
-    <row r="21" spans="1:8" s="148" customFormat="1" ht="38.25">
-      <c r="A21" s="170" t="str">
+      <c r="F20" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="105"/>
+    </row>
+    <row r="21" spans="1:8" s="87" customFormat="1" ht="38.25">
+      <c r="A21" s="102" t="str">
         <f>IF(C21&lt;&gt;"","Reg_"&amp; (ROW()-10)-COUNTBLANK(C$11:C21),"")</f>
         <v>Reg_9</v>
       </c>
-      <c r="B21" s="171" t="s">
+      <c r="B21" s="103" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="171" t="s">
+      <c r="C21" s="103" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="171" t="s">
+      <c r="D21" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="170" t="s">
+      <c r="E21" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="170" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="170"/>
-      <c r="H21" s="171"/>
-    </row>
-    <row r="22" spans="1:8" s="148" customFormat="1" ht="63.75">
-      <c r="A22" s="170" t="str">
+      <c r="F21" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="103"/>
+    </row>
+    <row r="22" spans="1:8" s="87" customFormat="1" ht="63.75">
+      <c r="A22" s="102" t="str">
         <f>IF(C22&lt;&gt;"","Reg_"&amp; (ROW()-10)-COUNTBLANK(C$11:C22),"")</f>
         <v>Reg_10</v>
       </c>
-      <c r="B22" s="171" t="s">
+      <c r="B22" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="171" t="s">
+      <c r="C22" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="171" t="s">
+      <c r="D22" s="103" t="s">
         <v>128</v>
       </c>
-      <c r="E22" s="170" t="s">
+      <c r="E22" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="170" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="170"/>
-      <c r="H22" s="171"/>
-    </row>
-    <row r="23" spans="1:8" s="148" customFormat="1" ht="63.75">
-      <c r="A23" s="170" t="str">
+      <c r="F22" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="103"/>
+    </row>
+    <row r="23" spans="1:8" s="87" customFormat="1" ht="63.75">
+      <c r="A23" s="102" t="str">
         <f>IF(C23&lt;&gt;"","Reg_"&amp; (ROW()-10)-COUNTBLANK(C$11:C23),"")</f>
         <v>Reg_11</v>
       </c>
-      <c r="B23" s="171" t="s">
+      <c r="B23" s="103" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="171" t="s">
+      <c r="C23" s="103" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="171" t="s">
+      <c r="D23" s="103" t="s">
         <v>90</v>
       </c>
-      <c r="E23" s="170" t="s">
+      <c r="E23" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="170" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="170"/>
-      <c r="H23" s="171"/>
-    </row>
-    <row r="24" spans="1:8" s="148" customFormat="1" ht="63.75">
-      <c r="A24" s="170" t="str">
+      <c r="F23" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="103"/>
+    </row>
+    <row r="24" spans="1:8" s="87" customFormat="1" ht="63.75">
+      <c r="A24" s="102" t="str">
         <f>IF(C24&lt;&gt;"","Reg_"&amp; (ROW()-10)-COUNTBLANK(C$11:C24),"")</f>
         <v>Reg_12</v>
       </c>
-      <c r="B24" s="171" t="s">
+      <c r="B24" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="171" t="s">
+      <c r="C24" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="171" t="s">
+      <c r="D24" s="103" t="s">
         <v>129</v>
       </c>
-      <c r="E24" s="170" t="s">
+      <c r="E24" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="170" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="170"/>
-      <c r="H24" s="171"/>
-    </row>
-    <row r="25" spans="1:8" s="148" customFormat="1" ht="38.25">
-      <c r="A25" s="170" t="str">
+      <c r="F24" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="103"/>
+    </row>
+    <row r="25" spans="1:8" s="87" customFormat="1" ht="38.25">
+      <c r="A25" s="102" t="str">
         <f>IF(C25&lt;&gt;"","Reg_"&amp; (ROW()-10)-COUNTBLANK(C$11:C25),"")</f>
         <v>Reg_13</v>
       </c>
-      <c r="B25" s="171" t="s">
+      <c r="B25" s="103" t="s">
         <v>130</v>
       </c>
-      <c r="C25" s="171" t="s">
+      <c r="C25" s="103" t="s">
         <v>132</v>
       </c>
-      <c r="D25" s="171" t="s">
+      <c r="D25" s="103" t="s">
         <v>131</v>
       </c>
-      <c r="E25" s="170" t="s">
+      <c r="E25" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="170" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="170"/>
-      <c r="H25" s="171"/>
-    </row>
-    <row r="26" spans="1:8" s="148" customFormat="1" ht="63.75">
-      <c r="A26" s="170" t="str">
+      <c r="F25" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="103"/>
+    </row>
+    <row r="26" spans="1:8" s="87" customFormat="1" ht="63.75">
+      <c r="A26" s="102" t="str">
         <f>IF(C26&lt;&gt;"","Reg_"&amp; (ROW()-10)-COUNTBLANK(C$11:C26),"")</f>
         <v>Reg_14</v>
       </c>
-      <c r="B26" s="171" t="s">
+      <c r="B26" s="103" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="171" t="s">
+      <c r="C26" s="103" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="171" t="s">
+      <c r="D26" s="103" t="s">
         <v>133</v>
       </c>
-      <c r="E26" s="170" t="s">
+      <c r="E26" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="170" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="170"/>
-      <c r="H26" s="171"/>
-    </row>
-    <row r="27" spans="1:8" s="148" customFormat="1" ht="63.75">
-      <c r="A27" s="170" t="str">
+      <c r="F26" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="103"/>
+    </row>
+    <row r="27" spans="1:8" s="87" customFormat="1" ht="63.75">
+      <c r="A27" s="102" t="str">
         <f>IF(C27&lt;&gt;"","Reg_"&amp; (ROW()-10)-COUNTBLANK(C$11:C27),"")</f>
         <v>Reg_15</v>
       </c>
-      <c r="B27" s="171" t="s">
+      <c r="B27" s="103" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="171" t="s">
+      <c r="C27" s="103" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="171" t="s">
+      <c r="D27" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="E27" s="170" t="s">
+      <c r="E27" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="170" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="170"/>
-      <c r="H27" s="171"/>
-    </row>
-    <row r="28" spans="1:8" s="148" customFormat="1" ht="63.75">
-      <c r="A28" s="170" t="str">
+      <c r="F27" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="103"/>
+    </row>
+    <row r="28" spans="1:8" s="87" customFormat="1" ht="63.75">
+      <c r="A28" s="102" t="str">
         <f>IF(C28&lt;&gt;"","Reg_"&amp; (ROW()-10)-COUNTBLANK(C$11:C28),"")</f>
         <v>Reg_16</v>
       </c>
-      <c r="B28" s="171" t="s">
+      <c r="B28" s="103" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="171" t="s">
+      <c r="C28" s="103" t="s">
         <v>99</v>
       </c>
-      <c r="D28" s="171" t="s">
+      <c r="D28" s="103" t="s">
         <v>133</v>
       </c>
-      <c r="E28" s="170" t="s">
+      <c r="E28" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="170" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" s="170"/>
-      <c r="H28" s="171"/>
-    </row>
-    <row r="29" spans="1:8" s="148" customFormat="1" ht="51">
-      <c r="A29" s="170" t="str">
+      <c r="F28" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="103"/>
+    </row>
+    <row r="29" spans="1:8" s="87" customFormat="1" ht="51">
+      <c r="A29" s="102" t="str">
         <f>IF(C29&lt;&gt;"","Reg_"&amp; (ROW()-10)-COUNTBLANK(C$11:C29),"")</f>
         <v>Reg_17</v>
       </c>
-      <c r="B29" s="171" t="s">
+      <c r="B29" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="171" t="s">
+      <c r="C29" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="D29" s="171" t="s">
-        <v>180</v>
-      </c>
-      <c r="E29" s="170" t="s">
+      <c r="D29" s="103" t="s">
+        <v>172</v>
+      </c>
+      <c r="E29" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="170" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="170"/>
-      <c r="H29" s="171"/>
-    </row>
-    <row r="30" spans="1:8" s="148" customFormat="1" ht="51">
-      <c r="A30" s="170" t="str">
+      <c r="F29" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="103"/>
+    </row>
+    <row r="30" spans="1:8" s="87" customFormat="1" ht="51">
+      <c r="A30" s="102" t="str">
         <f>IF(C30&lt;&gt;"","Reg_"&amp; (ROW()-10)-COUNTBLANK(C$11:C30),"")</f>
         <v>Reg_18</v>
       </c>
-      <c r="B30" s="171" t="s">
+      <c r="B30" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="171" t="s">
+      <c r="C30" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="D30" s="171" t="s">
+      <c r="D30" s="103" t="s">
         <v>103</v>
       </c>
-      <c r="E30" s="170" t="s">
+      <c r="E30" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="170" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30" s="170"/>
-      <c r="H30" s="171"/>
-    </row>
-    <row r="31" spans="1:8" s="148" customFormat="1" ht="38.25">
-      <c r="A31" s="170" t="str">
+      <c r="F30" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="103"/>
+    </row>
+    <row r="31" spans="1:8" s="87" customFormat="1" ht="38.25">
+      <c r="A31" s="102" t="str">
         <f>IF(C31&lt;&gt;"","Reg_"&amp; (ROW()-10)-COUNTBLANK(C$11:C31),"")</f>
         <v>Reg_19</v>
       </c>
-      <c r="B31" s="171" t="s">
+      <c r="B31" s="103" t="s">
         <v>104</v>
       </c>
-      <c r="C31" s="171" t="s">
+      <c r="C31" s="103" t="s">
         <v>105</v>
       </c>
-      <c r="D31" s="171" t="s">
+      <c r="D31" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="170" t="s">
+      <c r="E31" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="170" t="s">
-        <v>8</v>
-      </c>
-      <c r="G31" s="170"/>
-      <c r="H31" s="171"/>
-    </row>
-    <row r="32" spans="1:8" s="148" customFormat="1" ht="89.25">
-      <c r="A32" s="170" t="str">
+      <c r="F31" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="103"/>
+    </row>
+    <row r="32" spans="1:8" s="87" customFormat="1" ht="89.25">
+      <c r="A32" s="102" t="str">
         <f>IF(C32&lt;&gt;"","Reg_"&amp; (ROW()-10)-COUNTBLANK(C$11:C32),"")</f>
         <v>Reg_20</v>
       </c>
-      <c r="B32" s="171" t="s">
+      <c r="B32" s="103" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="171" t="s">
+      <c r="C32" s="103" t="s">
         <v>107</v>
       </c>
-      <c r="D32" s="171" t="s">
+      <c r="D32" s="103" t="s">
         <v>108</v>
       </c>
-      <c r="E32" s="170" t="s">
+      <c r="E32" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="F32" s="170" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32" s="170"/>
-      <c r="H32" s="171"/>
-    </row>
-    <row r="33" spans="1:8" s="148" customFormat="1" ht="89.25">
-      <c r="A33" s="170" t="str">
+      <c r="F32" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="103"/>
+    </row>
+    <row r="33" spans="1:8" s="87" customFormat="1" ht="89.25">
+      <c r="A33" s="102" t="str">
         <f>IF(C33&lt;&gt;"","Reg_"&amp; (ROW()-10)-COUNTBLANK(C$11:C33),"")</f>
         <v>Reg_21</v>
       </c>
-      <c r="B33" s="171" t="s">
+      <c r="B33" s="103" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="171" t="s">
+      <c r="C33" s="103" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="171" t="s">
+      <c r="D33" s="103" t="s">
         <v>111</v>
       </c>
-      <c r="E33" s="170" t="s">
+      <c r="E33" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="170" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33" s="170"/>
-      <c r="H33" s="171"/>
-    </row>
-    <row r="34" spans="1:8" s="148" customFormat="1" ht="76.5">
-      <c r="A34" s="170" t="str">
+      <c r="F33" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="103"/>
+    </row>
+    <row r="34" spans="1:8" s="87" customFormat="1" ht="76.5">
+      <c r="A34" s="102" t="str">
         <f>IF(C34&lt;&gt;"","Reg_"&amp; (ROW()-10)-COUNTBLANK(C$11:C34),"")</f>
         <v>Reg_22</v>
       </c>
-      <c r="B34" s="171" t="s">
+      <c r="B34" s="103" t="s">
         <v>134</v>
       </c>
-      <c r="C34" s="171" t="s">
+      <c r="C34" s="103" t="s">
         <v>112</v>
       </c>
-      <c r="D34" s="171" t="s">
+      <c r="D34" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="E34" s="170" t="s">
+      <c r="E34" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="F34" s="170" t="s">
-        <v>8</v>
-      </c>
-      <c r="G34" s="170"/>
-      <c r="H34" s="171"/>
+      <c r="F34" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="103"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="F35" s="133"/>
+      <c r="F35" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A6:B6"/>
@@ -4375,14 +4863,9 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F12:G13 G15:G34 F15:F35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15:F35 F12:G13 G15:G34">
       <formula1>"Passed, Failed, Untested, Pending, Accepted, NA"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F3 F5:F6 F14 F10">
@@ -4404,8 +4887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A7" sqref="A1:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4417,10 +4900,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" thickBot="1">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="122"/>
+      <c r="B1" s="166"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
@@ -4429,76 +4912,76 @@
       <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="124"/>
-      <c r="C2" s="125" t="s">
+      <c r="B2" s="168"/>
+      <c r="C2" s="169" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="128"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="172"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="129" t="s">
-        <v>148</v>
-      </c>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="132"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="173" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="176"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="109" t="s">
+      <c r="B4" s="152"/>
+      <c r="C4" s="153" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="110"/>
+      <c r="D4" s="154"/>
       <c r="E4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="111"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="113"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="156"/>
+      <c r="H4" s="157"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="117"/>
+      <c r="B5" s="159"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="159"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="161"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="118" t="s">
+      <c r="A6" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="119"/>
+      <c r="B6" s="163"/>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="121"/>
+      <c r="F6" s="164"/>
+      <c r="G6" s="164"/>
+      <c r="H6" s="165"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="101"/>
-      <c r="B7" s="102"/>
+      <c r="A7" s="145"/>
+      <c r="B7" s="146"/>
       <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
@@ -4511,56 +4994,52 @@
       <c r="F7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="134"/>
-      <c r="H7" s="134"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="103" t="s">
+      <c r="A8" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="104"/>
+      <c r="B8" s="148"/>
       <c r="C8" s="14">
-        <f>COUNTIF(F12:F15,"Passed")</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" s="14">
         <f>COUNTIF(F10:F15,"Failed")</f>
         <v>1</v>
       </c>
       <c r="E8" s="14">
-        <f>F8-D8-C8</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F8" s="14">
         <f>COUNTA(E12:E20)</f>
         <v>8</v>
       </c>
-      <c r="G8" s="134"/>
-      <c r="H8" s="134"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="106"/>
+      <c r="B9" s="150"/>
       <c r="C9" s="14">
-        <f xml:space="preserve"> COUNTIF(G12:G15,"Passed")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D9" s="14">
         <f xml:space="preserve"> COUNTIF(G12:G15,"Failed")</f>
         <v>0</v>
       </c>
       <c r="E9" s="14">
-        <f>F9-D9-C9</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F9" s="14">
         <f>COUNTA(E12:E20)</f>
         <v>8</v>
       </c>
-      <c r="G9" s="135"/>
-      <c r="H9" s="135"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
     </row>
     <row r="10" spans="1:8" ht="25.5">
       <c r="A10" s="15" t="s">
@@ -4598,7 +5077,7 @@
       <c r="E11" s="22"/>
       <c r="F11" s="23"/>
       <c r="G11" s="22"/>
-      <c r="H11" s="136"/>
+      <c r="H11" s="75"/>
     </row>
     <row r="12" spans="1:8" ht="51">
       <c r="A12" s="24" t="str">
@@ -4609,10 +5088,10 @@
         <v>135</v>
       </c>
       <c r="C12" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="76" t="s">
         <v>136</v>
-      </c>
-      <c r="D12" s="137" t="s">
-        <v>137</v>
       </c>
       <c r="E12" s="24" t="s">
         <v>23</v>
@@ -4620,12 +5099,14 @@
       <c r="F12" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="24"/>
+      <c r="G12" s="24" t="s">
+        <v>8</v>
+      </c>
       <c r="H12" s="25"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -4633,178 +5114,185 @@
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
-      <c r="H13" s="138"/>
+      <c r="H13" s="77"/>
     </row>
     <row r="14" spans="1:8" ht="51">
       <c r="A14" s="24" t="str">
         <f>IF(C14&lt;&gt;"","Pw_"&amp; (ROW()-10)-COUNTBLANK(C$11:C14),"")</f>
         <v>Pw_2</v>
       </c>
-      <c r="B14" s="139" t="s">
-        <v>139</v>
+      <c r="B14" s="78" t="s">
+        <v>138</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E14" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="143" t="s">
+      <c r="F14" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="26"/>
-      <c r="H14" s="27" t="s">
-        <v>151</v>
-      </c>
+      <c r="G14" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:8" ht="63.75">
       <c r="A15" s="24" t="str">
         <f>IF(C15&lt;&gt;"","Pw_"&amp; (ROW()-10)-COUNTBLANK(C$11:C15),"")</f>
         <v>Pw_3</v>
       </c>
-      <c r="B15" s="140" t="s">
-        <v>152</v>
-      </c>
-      <c r="C15" s="141" t="s">
-        <v>153</v>
-      </c>
-      <c r="D15" s="141" t="s">
-        <v>157</v>
-      </c>
-      <c r="E15" s="142" t="s">
+      <c r="B15" s="79" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="80" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="80" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="141" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="141"/>
-      <c r="H15" s="141"/>
+      <c r="F15" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="80"/>
     </row>
     <row r="16" spans="1:8" ht="63.75">
       <c r="A16" s="24" t="str">
         <f>IF(C16&lt;&gt;"","Pw_"&amp; (ROW()-10)-COUNTBLANK(C$11:C16),"")</f>
         <v>Pw_4</v>
       </c>
-      <c r="B16" s="139" t="s">
-        <v>155</v>
-      </c>
-      <c r="C16" s="141" t="s">
-        <v>156</v>
-      </c>
-      <c r="D16" s="141" t="s">
-        <v>154</v>
-      </c>
-      <c r="E16" s="142" t="s">
+      <c r="B16" s="78" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="80" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="80" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="141" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="141"/>
-      <c r="H16" s="141"/>
+      <c r="F16" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="80"/>
     </row>
     <row r="17" spans="1:8" ht="63.75">
       <c r="A17" s="24" t="str">
         <f>IF(C17&lt;&gt;"","Pw_"&amp; (ROW()-10)-COUNTBLANK(C$11:C17),"")</f>
         <v>Pw_5</v>
       </c>
-      <c r="B17" s="140" t="s">
+      <c r="B17" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="141" t="s">
-        <v>158</v>
-      </c>
-      <c r="D17" s="141" t="s">
-        <v>140</v>
-      </c>
-      <c r="E17" s="142" t="s">
+      <c r="C17" s="80" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" s="80" t="s">
+        <v>139</v>
+      </c>
+      <c r="E17" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="141" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="141"/>
+      <c r="F17" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="80"/>
     </row>
     <row r="18" spans="1:8" ht="89.25">
       <c r="A18" s="24" t="str">
         <f>IF(C18&lt;&gt;"","Pw_"&amp; (ROW()-10)-COUNTBLANK(C$11:C18),"")</f>
         <v>Pw_6</v>
       </c>
-      <c r="B18" s="139" t="s">
-        <v>141</v>
-      </c>
-      <c r="C18" s="141" t="s">
-        <v>142</v>
-      </c>
-      <c r="D18" s="141" t="s">
+      <c r="B18" s="78" t="s">
         <v>140</v>
       </c>
-      <c r="E18" s="142" t="s">
+      <c r="C18" s="80" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" s="80" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="141" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="141"/>
-      <c r="H18" s="141"/>
+      <c r="F18" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="80"/>
     </row>
     <row r="19" spans="1:8" ht="102">
       <c r="A19" s="24" t="str">
         <f>IF(C19&lt;&gt;"","Pw_"&amp; (ROW()-10)-COUNTBLANK(C$11:C19),"")</f>
         <v>Pw_7</v>
       </c>
-      <c r="B19" s="139" t="s">
-        <v>143</v>
-      </c>
-      <c r="C19" s="141" t="s">
-        <v>144</v>
-      </c>
-      <c r="D19" s="141" t="s">
-        <v>140</v>
-      </c>
-      <c r="E19" s="142" t="s">
+      <c r="B19" s="78" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="80" t="s">
+        <v>142</v>
+      </c>
+      <c r="D19" s="80" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="141" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="141"/>
-      <c r="H19" s="141"/>
+      <c r="F19" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="80"/>
     </row>
     <row r="20" spans="1:8" ht="63.75">
       <c r="A20" s="24" t="str">
         <f>IF(C20&lt;&gt;"","Pw_"&amp; (ROW()-10)-COUNTBLANK(C$11:C20),"")</f>
         <v>Pw_8</v>
       </c>
-      <c r="B20" s="140" t="s">
-        <v>145</v>
-      </c>
-      <c r="C20" s="141" t="s">
-        <v>146</v>
-      </c>
-      <c r="D20" s="141" t="s">
-        <v>147</v>
-      </c>
-      <c r="E20" s="142" t="s">
+      <c r="B20" s="79" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="80" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" s="80" t="s">
+        <v>144</v>
+      </c>
+      <c r="E20" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="141" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="141"/>
-      <c r="H20" s="141"/>
+      <c r="F20" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A6:B6"/>
@@ -4816,6 +5304,11 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F12:G12 F14:G20">
@@ -4839,8 +5332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4850,10 +5343,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" thickBot="1">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="122"/>
+      <c r="B1" s="166"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
@@ -4862,76 +5355,76 @@
       <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="124"/>
-      <c r="C2" s="125" t="s">
+      <c r="B2" s="168"/>
+      <c r="C2" s="169" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="128"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="172"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="129" t="s">
-        <v>159</v>
-      </c>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="132"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="173" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="176"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="109" t="s">
+      <c r="B4" s="152"/>
+      <c r="C4" s="153" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="110"/>
+      <c r="D4" s="154"/>
       <c r="E4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="111"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="113"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="156"/>
+      <c r="H4" s="157"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="117"/>
+      <c r="B5" s="159"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="159"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="161"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="118" t="s">
+      <c r="A6" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="119"/>
+      <c r="B6" s="163"/>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="121"/>
+      <c r="F6" s="164"/>
+      <c r="G6" s="164"/>
+      <c r="H6" s="165"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="101"/>
-      <c r="B7" s="102"/>
+      <c r="A7" s="145"/>
+      <c r="B7" s="146"/>
       <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
@@ -4944,14 +5437,14 @@
       <c r="F7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="134"/>
-      <c r="H7" s="134"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="103" t="s">
+      <c r="A8" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="104"/>
+      <c r="B8" s="148"/>
       <c r="C8" s="14">
         <v>3</v>
       </c>
@@ -4967,17 +5460,17 @@
         <f>COUNTA(E12:E19)</f>
         <v>4</v>
       </c>
-      <c r="G8" s="134"/>
-      <c r="H8" s="134"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="106"/>
+      <c r="B9" s="150"/>
       <c r="C9" s="14">
         <f xml:space="preserve"> COUNTIF(G12:G15,"Passed")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" s="14">
         <f xml:space="preserve"> COUNTIF(G12:G15,"Failed")</f>
@@ -4985,14 +5478,14 @@
       </c>
       <c r="E9" s="14">
         <f>F9-D9-C9</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F9" s="14">
         <f>COUNTA(E12:E19)</f>
         <v>4</v>
       </c>
-      <c r="G9" s="135"/>
-      <c r="H9" s="135"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
     </row>
     <row r="10" spans="1:8" ht="25.5">
       <c r="A10" s="15" t="s">
@@ -5030,20 +5523,20 @@
       <c r="E11" s="22"/>
       <c r="F11" s="23"/>
       <c r="G11" s="22"/>
-      <c r="H11" s="136"/>
+      <c r="H11" s="75"/>
     </row>
     <row r="12" spans="1:8" ht="63.75">
       <c r="A12" s="24" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B12" s="25" t="s">
         <v>135</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="D12" s="137" t="s">
-        <v>161</v>
+        <v>181</v>
+      </c>
+      <c r="D12" s="76" t="s">
+        <v>154</v>
       </c>
       <c r="E12" s="24" t="s">
         <v>23</v>
@@ -5051,12 +5544,14 @@
       <c r="F12" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="24"/>
+      <c r="G12" s="24" t="s">
+        <v>8</v>
+      </c>
       <c r="H12" s="25"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="21" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -5064,81 +5559,82 @@
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
-      <c r="H13" s="138"/>
+      <c r="H13" s="77"/>
     </row>
     <row r="14" spans="1:8" ht="130.5" customHeight="1">
       <c r="A14" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="B14" s="139" t="s">
-        <v>166</v>
+        <v>158</v>
+      </c>
+      <c r="B14" s="78" t="s">
+        <v>159</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E14" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="143" t="s">
+      <c r="F14" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="26"/>
+      <c r="G14" s="26" t="s">
+        <v>8</v>
+      </c>
       <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:8" ht="89.25">
       <c r="A15" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="B15" s="140" t="s">
         <v>168</v>
       </c>
-      <c r="C15" s="141" t="s">
-        <v>170</v>
-      </c>
-      <c r="D15" s="141" t="s">
-        <v>171</v>
-      </c>
-      <c r="E15" s="142" t="s">
+      <c r="B15" s="79" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="80" t="s">
+        <v>163</v>
+      </c>
+      <c r="D15" s="80" t="s">
+        <v>164</v>
+      </c>
+      <c r="E15" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="141" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="141"/>
-      <c r="H15" s="141"/>
+      <c r="F15" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="80"/>
     </row>
     <row r="16" spans="1:8" ht="76.5">
       <c r="A16" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="B16" s="139" t="s">
-        <v>172</v>
-      </c>
-      <c r="C16" s="141" t="s">
-        <v>173</v>
-      </c>
-      <c r="D16" s="141" t="s">
-        <v>174</v>
-      </c>
-      <c r="E16" s="142" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" s="78" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" s="80" t="s">
+        <v>166</v>
+      </c>
+      <c r="D16" s="80" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="141" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="141"/>
-      <c r="H16" s="141"/>
+      <c r="F16" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A6:B6"/>
@@ -5150,6 +5646,11 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12 E14:E16">
@@ -5171,10 +5672,1143 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="35.77734375" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="19.5">
+      <c r="A1" s="142" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="142"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="143" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="143"/>
+      <c r="C2" s="138" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="143" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="143"/>
+      <c r="C3" s="138" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="143" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="143"/>
+      <c r="C4" s="141" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="141"/>
+      <c r="E4" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="139" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="139"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="139"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="140" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="140"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="140"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="94" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="94" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="177"/>
+      <c r="H7" s="177"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="140" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="140"/>
+      <c r="C8" s="95">
+        <v>1</v>
+      </c>
+      <c r="D8" s="95">
+        <f>COUNTIF(F10:F13,"Failed")</f>
+        <v>2</v>
+      </c>
+      <c r="E8" s="95">
+        <v>0</v>
+      </c>
+      <c r="F8" s="95">
+        <v>3</v>
+      </c>
+      <c r="G8" s="177"/>
+      <c r="H8" s="177"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="144" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="144"/>
+      <c r="C9" s="95">
+        <v>3</v>
+      </c>
+      <c r="D9" s="95">
+        <f xml:space="preserve"> COUNTIF(G12:G13,"Failed")</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="95">
+        <f>F9-D9-C9</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="95">
+        <v>3</v>
+      </c>
+      <c r="G9" s="178"/>
+      <c r="H9" s="178"/>
+    </row>
+    <row r="10" spans="1:8" ht="25.5">
+      <c r="A10" s="96" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="97" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="97" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="97" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="97" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="97" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="97" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="21.75" customHeight="1">
+      <c r="A11" s="179" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" s="179"/>
+      <c r="C11" s="179"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+    </row>
+    <row r="12" spans="1:8" ht="51">
+      <c r="A12" s="102" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="103" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" s="103" t="s">
+        <v>182</v>
+      </c>
+      <c r="D12" s="180" t="s">
+        <v>180</v>
+      </c>
+      <c r="E12" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="103"/>
+    </row>
+    <row r="13" spans="1:8" ht="51">
+      <c r="A13" s="102" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" s="103" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" s="103" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" s="103" t="s">
+        <v>186</v>
+      </c>
+      <c r="E13" s="102" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="108" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="103"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="181" t="s">
+        <v>188</v>
+      </c>
+      <c r="B14" s="181"/>
+      <c r="C14" s="181"/>
+      <c r="D14" s="181"/>
+      <c r="E14" s="182"/>
+      <c r="F14" s="182"/>
+      <c r="G14" s="182"/>
+      <c r="H14" s="182"/>
+    </row>
+    <row r="15" spans="1:8" ht="71.25" customHeight="1">
+      <c r="A15" s="187" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15" s="186" t="s">
+        <v>189</v>
+      </c>
+      <c r="C15" s="103" t="s">
+        <v>190</v>
+      </c>
+      <c r="D15" s="184" t="s">
+        <v>191</v>
+      </c>
+      <c r="E15" s="183"/>
+      <c r="F15" s="185" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="185" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="183"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F3 F10:F11 F5:F6">
+      <formula1>"Pass,Fail,Untest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F12:G13">
+      <formula1>"Passed, Failed, Untested, Pending, Accepted, NA"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12:E13">
+      <formula1>"High,Medium,Low"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="D12" location="Image!J22" display="'Tìm kiếm' sản phẩm"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.25" thickBot="1">
+      <c r="A1" s="166" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="166"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="167" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="168"/>
+      <c r="C2" s="169" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="172"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="151" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="152"/>
+      <c r="C3" s="173" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="176"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="151" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="152"/>
+      <c r="C4" s="153" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="154"/>
+      <c r="E4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="155"/>
+      <c r="G4" s="156"/>
+      <c r="H4" s="157"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="158" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="159"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="159"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="161"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="162" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="163"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="164"/>
+      <c r="G6" s="164"/>
+      <c r="H6" s="165"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="145"/>
+      <c r="B7" s="146"/>
+      <c r="C7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="147" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="148"/>
+      <c r="C8" s="14">
+        <v>5</v>
+      </c>
+      <c r="D8" s="14">
+        <f>COUNTIF(F10:F17,"Failed")</f>
+        <v>5</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0</v>
+      </c>
+      <c r="F8" s="14">
+        <f>COUNTA(E12:E17)</f>
+        <v>5</v>
+      </c>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="149" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="150"/>
+      <c r="C9" s="14">
+        <v>8</v>
+      </c>
+      <c r="D9" s="14">
+        <f xml:space="preserve"> COUNTIF(G12:G17,"Failed")</f>
+        <v>4</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0</v>
+      </c>
+      <c r="F9" s="14">
+        <f>COUNTA(E12:E17)</f>
+        <v>5</v>
+      </c>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+    </row>
+    <row r="10" spans="1:8" ht="25.5">
+      <c r="A10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="75"/>
+    </row>
+    <row r="12" spans="1:8" ht="38.25">
+      <c r="A12" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12" s="76" t="s">
+        <v>195</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="25"/>
+    </row>
+    <row r="13" spans="1:8" ht="38.25">
+      <c r="A13" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13" s="76" t="s">
+        <v>195</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="25"/>
+    </row>
+    <row r="14" spans="1:8" ht="38.25">
+      <c r="A14" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="D14" s="76" t="s">
+        <v>195</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="25"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="77"/>
+    </row>
+    <row r="16" spans="1:8" ht="63.75">
+      <c r="A16" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="B16" s="78" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="D16" s="190" t="s">
+        <v>202</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="27"/>
+    </row>
+    <row r="17" spans="1:8" ht="51">
+      <c r="A17" s="24" t="str">
+        <f>IF(C17&lt;&gt;"","Pw_"&amp; (ROW()-10)-COUNTBLANK(C$11:C17),"")</f>
+        <v>Pw_5</v>
+      </c>
+      <c r="B17" s="79" t="s">
+        <v>204</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="D17" s="80"/>
+      <c r="E17" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="191" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="79"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12:E14 E16:E17">
+      <formula1>"High,Medium,Low"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F3 F10 F15 F5:F6">
+      <formula1>"Pass,Fail,Untest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F12:G14 F16:G17">
+      <formula1>"Passed, Failed, Untested, Pending, Accepted, NA"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="D12" location="Image!J43" display="Thêm vào giỏ hàng"/>
+    <hyperlink ref="D13" location="Image!J43" display="Thêm vào giỏ hàng"/>
+    <hyperlink ref="D14" location="Image!J43" display="Thêm vào giỏ hàng"/>
+    <hyperlink ref="D16" location="Image!J67" display="Kiểm tra giỏ hàng"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="36.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.25" thickBot="1">
+      <c r="A1" s="166" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="166"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="167" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="168"/>
+      <c r="C2" s="169" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="172"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="151" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="152"/>
+      <c r="C3" s="173" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="176"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="151" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="152"/>
+      <c r="C4" s="153" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="154"/>
+      <c r="E4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="155"/>
+      <c r="G4" s="156"/>
+      <c r="H4" s="157"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="158" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="159"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="159"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="161"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="162" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="163"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="164"/>
+      <c r="G6" s="164"/>
+      <c r="H6" s="165"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="145"/>
+      <c r="B7" s="146"/>
+      <c r="C7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="147" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="148"/>
+      <c r="C8" s="14">
+        <v>0</v>
+      </c>
+      <c r="D8" s="14">
+        <f>COUNTIF(F10:F15,"Failed")</f>
+        <v>4</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0</v>
+      </c>
+      <c r="F8" s="14">
+        <v>4</v>
+      </c>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="149" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="150"/>
+      <c r="C9" s="14">
+        <v>0</v>
+      </c>
+      <c r="D9" s="14">
+        <f xml:space="preserve"> COUNTIF(G12:G15,"Failed")</f>
+        <v>4</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0</v>
+      </c>
+      <c r="F9" s="14">
+        <v>4</v>
+      </c>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+    </row>
+    <row r="10" spans="1:8" ht="25.5">
+      <c r="A10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="75"/>
+    </row>
+    <row r="12" spans="1:8" ht="38.25">
+      <c r="A12" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12" s="80" t="s">
+        <v>213</v>
+      </c>
+      <c r="D12" s="76" t="s">
+        <v>209</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="25"/>
+    </row>
+    <row r="13" spans="1:8" ht="38.25">
+      <c r="A13" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="B13" s="188" t="s">
+        <v>211</v>
+      </c>
+      <c r="C13" s="80" t="s">
+        <v>214</v>
+      </c>
+      <c r="D13" s="76" t="s">
+        <v>209</v>
+      </c>
+      <c r="E13" s="86"/>
+      <c r="F13" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="189"/>
+    </row>
+    <row r="14" spans="1:8" ht="89.25">
+      <c r="A14" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="B14" s="78" t="s">
+        <v>212</v>
+      </c>
+      <c r="C14" s="80" t="s">
+        <v>215</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="27"/>
+    </row>
+    <row r="15" spans="1:8" ht="89.25">
+      <c r="A15" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="B15" s="79" t="s">
+        <v>217</v>
+      </c>
+      <c r="C15" s="80" t="s">
+        <v>215</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="E15" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="80"/>
+    </row>
+    <row r="16" spans="1:8" ht="204">
+      <c r="A16" s="24" t="str">
+        <f>IF(C16&lt;&gt;"","Pw_"&amp; (ROW()-10)-COUNTBLANK(C$11:C16),"")</f>
+        <v>Pw_5</v>
+      </c>
+      <c r="B16" s="78" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="80" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="80" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="80"/>
+    </row>
+    <row r="17" spans="1:8" ht="216.75">
+      <c r="A17" s="24" t="str">
+        <f>IF(C17&lt;&gt;"","Pw_"&amp; (ROW()-10)-COUNTBLANK(C$11:C17),"")</f>
+        <v>Pw_6</v>
+      </c>
+      <c r="B17" s="79" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="80" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" s="80" t="s">
+        <v>139</v>
+      </c>
+      <c r="E17" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="80"/>
+    </row>
+    <row r="18" spans="1:8" ht="229.5">
+      <c r="A18" s="24" t="str">
+        <f>IF(C18&lt;&gt;"","Pw_"&amp; (ROW()-10)-COUNTBLANK(C$11:C18),"")</f>
+        <v>Pw_7</v>
+      </c>
+      <c r="B18" s="78" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="80" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" s="80" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="80"/>
+    </row>
+    <row r="19" spans="1:8" ht="229.5">
+      <c r="A19" s="24" t="str">
+        <f>IF(C19&lt;&gt;"","Pw_"&amp; (ROW()-10)-COUNTBLANK(C$11:C19),"")</f>
+        <v>Pw_8</v>
+      </c>
+      <c r="B19" s="78" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="80" t="s">
+        <v>142</v>
+      </c>
+      <c r="D19" s="80" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="80"/>
+    </row>
+    <row r="20" spans="1:8" ht="229.5">
+      <c r="A20" s="24" t="str">
+        <f>IF(C20&lt;&gt;"","Pw_"&amp; (ROW()-10)-COUNTBLANK(C$11:C20),"")</f>
+        <v>Pw_9</v>
+      </c>
+      <c r="B20" s="79" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="80" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" s="80" t="s">
+        <v>144</v>
+      </c>
+      <c r="E20" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="80"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12:E20">
+      <formula1>"High,Medium,Low"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F3 F10 F5:F6">
+      <formula1>"Pass,Fail,Untest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F12:G20">
+      <formula1>"Passed, Failed, Untested, Pending, Accepted, NA"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="D12" location="Image!A68" display="Liên kết FB,Google"/>
+    <hyperlink ref="D13" location="Image!A68" display="Liên kết FB,Google"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J67"/>
+  <sheetViews>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5187,18 +6821,34 @@
         <v>114</v>
       </c>
       <c r="I1" s="71" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="J1" s="71"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:10">
       <c r="A21" s="71" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="J21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="71" t="s">
         <v>3</v>
+      </c>
+      <c r="J42" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="J66" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
